--- a/test/data/roi_stats_baseline.xlsx
+++ b/test/data/roi_stats_baseline.xlsx
@@ -1,37 +1,131 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>RTImageLabel</t>
+  </si>
+  <si>
+    <t>ImageType</t>
+  </si>
+  <si>
+    <t>AcquisitionDate</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Max vs Min</t>
+  </si>
+  <si>
+    <t>PDIP.Open</t>
+  </si>
+  <si>
+    <t>PDIP.RAD</t>
+  </si>
+  <si>
+    <t>RI.OPEN</t>
+  </si>
+  <si>
+    <t>RI.RAD</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>rad_qa_hdmlc</t>
+  </si>
+  <si>
+    <t>mv_0_1a</t>
+  </si>
+  <si>
+    <t>mv_182_1a</t>
+  </si>
+  <si>
+    <t>OPEN PREDICTED</t>
+  </si>
+  <si>
+    <t>DRCS PREDICTED</t>
+  </si>
+  <si>
+    <t>OPEN</t>
+  </si>
+  <si>
+    <t>DRCS</t>
+  </si>
+  <si>
+    <t>NORMALIZED</t>
+  </si>
+  <si>
+    <t>NORMALISED PREDICTED</t>
+  </si>
+  <si>
+    <t>20241022</t>
+  </si>
+  <si>
+    <t>20240529</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.00%"/>
+  </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +140,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,335 +459,264 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="9.140625" style="2"/>
+    <col min="11" max="11" width="9.140625" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>RTImageLabel</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ImageType</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>AcquisitionDate</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Max vs Min</t>
-        </is>
+    <row r="1" spans="1:11">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1">
         <v>1.051261398765697</v>
       </c>
-      <c r="B2" t="n">
+      <c r="F2" s="1">
         <v>1.051255886161194</v>
       </c>
-      <c r="C2" t="n">
+      <c r="G2" s="1">
         <v>1.051339798850324</v>
       </c>
-      <c r="D2" t="n">
+      <c r="H2" s="1">
         <v>1.051264741649434</v>
       </c>
-      <c r="E2" t="n">
+      <c r="I2" s="1">
         <v>1.051269787511679</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>PDIP.Open</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>open</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>OPEN</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>20241022</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
+      <c r="J2" s="2">
         <v>1.051278322587665</v>
       </c>
-      <c r="K2" t="n">
-        <v>7.982137387685384e-05</v>
+      <c r="K2" s="3">
+        <v>7.982137387685384E-05</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1">
         <v>0.04143825450274045</v>
       </c>
-      <c r="B3" t="n">
+      <c r="F3" s="1">
         <v>0.04149362750598951</v>
       </c>
-      <c r="C3" t="n">
+      <c r="G3" s="1">
         <v>0.04148816340401185</v>
       </c>
-      <c r="D3" t="n">
+      <c r="H3" s="1">
         <v>0.04144832607046804</v>
       </c>
-      <c r="E3" t="n">
+      <c r="I3" s="1">
         <v>0.04141474386841633</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>PDIP.RAD</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>rad_qa_hdmlc</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>DRCS</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>20241022</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
+      <c r="J3" s="2">
         <v>0.04145662307032523</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="3">
         <v>0.001904723540577802</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1">
         <v>1.076680493837373</v>
       </c>
-      <c r="B4" t="n">
+      <c r="F4" s="1">
         <v>1.076090302763109</v>
       </c>
-      <c r="C4" t="n">
+      <c r="G4" s="1">
         <v>1.077385920585414</v>
       </c>
-      <c r="D4" t="n">
+      <c r="H4" s="1">
         <v>1.075989517135804</v>
       </c>
-      <c r="E4" t="n">
+      <c r="I4" s="1">
         <v>1.076726249501096</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>RI.OPEN</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>mv_0_1a</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>OPEN</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>20240529</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
+      <c r="J4" s="2">
         <v>1.076574496764559</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="3">
         <v>0.001297785366281223</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1">
         <v>0.04212464269667251</v>
       </c>
-      <c r="B5" t="n">
+      <c r="F5" s="1">
         <v>0.04227474176203542</v>
       </c>
-      <c r="C5" t="n">
+      <c r="G5" s="1">
         <v>0.04249410510222455</v>
       </c>
-      <c r="D5" t="n">
+      <c r="H5" s="1">
         <v>0.04206963080482708</v>
       </c>
-      <c r="E5" t="n">
+      <c r="I5" s="1">
         <v>0.04206104918741712</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>RI.RAD</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>mv_182_1a</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>DRCS</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>20240529</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
+      <c r="J5" s="2">
         <v>0.04220483391063534</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="3">
         <v>0.01029588950284621</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1">
         <v>0.03912455267628841</v>
       </c>
-      <c r="B6" t="n">
+      <c r="F6" s="1">
         <v>0.03928549644345396</v>
       </c>
-      <c r="C6" t="n">
+      <c r="G6" s="1">
         <v>0.03944186042373258</v>
       </c>
-      <c r="D6" t="n">
+      <c r="H6" s="1">
         <v>0.03909855080820211</v>
       </c>
-      <c r="E6" t="n">
+      <c r="I6" s="1">
         <v>0.03906382816143492</v>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>RI.RAD</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>mv_182_1a</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>NORMALIZED</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>20240529</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
+      <c r="J6" s="2">
         <v>0.03920285770262239</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="3">
         <v>0.009677296877699915</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1">
         <v>0.03941765059707679</v>
       </c>
-      <c r="B7" t="n">
+      <c r="F7" s="1">
         <v>0.0394705304885466</v>
       </c>
-      <c r="C7" t="n">
+      <c r="G7" s="1">
         <v>0.03946218287311161</v>
       </c>
-      <c r="D7" t="n">
+      <c r="H7" s="1">
         <v>0.03942710568361271</v>
       </c>
-      <c r="E7" t="n">
+      <c r="I7" s="1">
         <v>0.03939497202373111</v>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>PDIP.RAD</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>rad_qa_hdmlc</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>NORMALIZED</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>20241022</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
+      <c r="J7" s="2">
         <v>0.03943448833321576</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="3">
         <v>0.001917972292757808</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test/data/roi_stats_baseline.xlsx
+++ b/test/data/roi_stats_baseline.xlsx
@@ -520,22 +520,22 @@
         <v>25</v>
       </c>
       <c r="E2" s="1">
-        <v>1.051261398765697</v>
+        <v>1.051269787511679</v>
       </c>
       <c r="F2" s="1">
-        <v>1.051255886161194</v>
+        <v>1.051264741649434</v>
       </c>
       <c r="G2" s="1">
         <v>1.051339798850324</v>
       </c>
       <c r="H2" s="1">
-        <v>1.051264741649434</v>
+        <v>1.051255886161194</v>
       </c>
       <c r="I2" s="1">
-        <v>1.051269787511679</v>
+        <v>1.051261398765697</v>
       </c>
       <c r="J2" s="2">
-        <v>1.051278322587665</v>
+        <v>1.051278322587666</v>
       </c>
       <c r="K2" s="3">
         <v>7.982137387685384E-05</v>
@@ -555,19 +555,19 @@
         <v>25</v>
       </c>
       <c r="E3" s="1">
-        <v>0.04143825450274045</v>
+        <v>0.04141474386841633</v>
       </c>
       <c r="F3" s="1">
-        <v>0.04149362750598951</v>
+        <v>0.04144832607046804</v>
       </c>
       <c r="G3" s="1">
         <v>0.04148816340401185</v>
       </c>
       <c r="H3" s="1">
-        <v>0.04144832607046804</v>
+        <v>0.04149362750598951</v>
       </c>
       <c r="I3" s="1">
-        <v>0.04141474386841633</v>
+        <v>0.04143825450274045</v>
       </c>
       <c r="J3" s="2">
         <v>0.04145662307032523</v>
@@ -590,19 +590,19 @@
         <v>26</v>
       </c>
       <c r="E4" s="1">
-        <v>1.076680493837373</v>
+        <v>1.076726249501096</v>
       </c>
       <c r="F4" s="1">
-        <v>1.076090302763109</v>
+        <v>1.075989517135804</v>
       </c>
       <c r="G4" s="1">
         <v>1.077385920585414</v>
       </c>
       <c r="H4" s="1">
-        <v>1.075989517135804</v>
+        <v>1.076090302763109</v>
       </c>
       <c r="I4" s="1">
-        <v>1.076726249501096</v>
+        <v>1.076680493837373</v>
       </c>
       <c r="J4" s="2">
         <v>1.076574496764559</v>
@@ -625,22 +625,22 @@
         <v>26</v>
       </c>
       <c r="E5" s="1">
-        <v>0.04212464269667251</v>
+        <v>0.04206104918741712</v>
       </c>
       <c r="F5" s="1">
-        <v>0.04227474176203542</v>
+        <v>0.04206963080482708</v>
       </c>
       <c r="G5" s="1">
         <v>0.04249410510222455</v>
       </c>
       <c r="H5" s="1">
-        <v>0.04206963080482708</v>
+        <v>0.04227474176203542</v>
       </c>
       <c r="I5" s="1">
-        <v>0.04206104918741712</v>
+        <v>0.04212464269667251</v>
       </c>
       <c r="J5" s="2">
-        <v>0.04220483391063534</v>
+        <v>0.04220483391063533</v>
       </c>
       <c r="K5" s="3">
         <v>0.01029588950284621</v>
@@ -660,22 +660,22 @@
         <v>26</v>
       </c>
       <c r="E6" s="1">
-        <v>0.03912455267628841</v>
+        <v>0.03906382816143492</v>
       </c>
       <c r="F6" s="1">
-        <v>0.03928549644345396</v>
+        <v>0.03909855080820211</v>
       </c>
       <c r="G6" s="1">
         <v>0.03944186042373258</v>
       </c>
       <c r="H6" s="1">
-        <v>0.03909855080820211</v>
+        <v>0.03928549644345396</v>
       </c>
       <c r="I6" s="1">
-        <v>0.03906382816143492</v>
+        <v>0.03912455267628841</v>
       </c>
       <c r="J6" s="2">
-        <v>0.03920285770262239</v>
+        <v>0.0392028577026224</v>
       </c>
       <c r="K6" s="3">
         <v>0.009677296877699915</v>
@@ -695,19 +695,19 @@
         <v>25</v>
       </c>
       <c r="E7" s="1">
-        <v>0.03941765059707679</v>
+        <v>0.03939497202373111</v>
       </c>
       <c r="F7" s="1">
-        <v>0.0394705304885466</v>
+        <v>0.03942710568361271</v>
       </c>
       <c r="G7" s="1">
         <v>0.03946218287311161</v>
       </c>
       <c r="H7" s="1">
-        <v>0.03942710568361271</v>
+        <v>0.0394705304885466</v>
       </c>
       <c r="I7" s="1">
-        <v>0.03939497202373111</v>
+        <v>0.03941765059707679</v>
       </c>
       <c r="J7" s="2">
         <v>0.03943448833321576</v>
